--- a/Code/Results/Cases/Case_4_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_147/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9998251697523446</v>
+        <v>1.050240391420051</v>
       </c>
       <c r="D2">
-        <v>1.018273384744345</v>
+        <v>1.049221199704704</v>
       </c>
       <c r="E2">
-        <v>1.014970304926307</v>
+        <v>1.063661699733451</v>
       </c>
       <c r="F2">
-        <v>1.016773429938591</v>
+        <v>1.070648850203086</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045790103641381</v>
+        <v>1.039052624044855</v>
       </c>
       <c r="J2">
-        <v>1.022011111220749</v>
+        <v>1.055274591449345</v>
       </c>
       <c r="K2">
-        <v>1.029483879592336</v>
+        <v>1.051978862053855</v>
       </c>
       <c r="L2">
-        <v>1.026224946113806</v>
+        <v>1.066379734503542</v>
       </c>
       <c r="M2">
-        <v>1.028003927340571</v>
+        <v>1.073348125940836</v>
       </c>
       <c r="N2">
-        <v>1.009379335671456</v>
+        <v>1.021981237685588</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008384370566374</v>
+        <v>1.051873240476058</v>
       </c>
       <c r="D3">
-        <v>1.024861905221822</v>
+        <v>1.050468178356056</v>
       </c>
       <c r="E3">
-        <v>1.023365305233631</v>
+        <v>1.06532478135365</v>
       </c>
       <c r="F3">
-        <v>1.0258057410757</v>
+        <v>1.072459115922767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048640013984567</v>
+        <v>1.039464437775116</v>
       </c>
       <c r="J3">
-        <v>1.0286490497819</v>
+        <v>1.056553705720592</v>
       </c>
       <c r="K3">
-        <v>1.035186256918387</v>
+        <v>1.053036920329153</v>
       </c>
       <c r="L3">
-        <v>1.033707702662652</v>
+        <v>1.067855744475702</v>
       </c>
       <c r="M3">
-        <v>1.036118745765864</v>
+        <v>1.074972337630042</v>
       </c>
       <c r="N3">
-        <v>1.011785782123699</v>
+        <v>1.022429112652596</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013730344876933</v>
+        <v>1.052927248968394</v>
       </c>
       <c r="D4">
-        <v>1.028977854272551</v>
+        <v>1.051272542997792</v>
       </c>
       <c r="E4">
-        <v>1.028614910756084</v>
+        <v>1.066398720774397</v>
       </c>
       <c r="F4">
-        <v>1.031455818802929</v>
+        <v>1.073628473438989</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050402601412781</v>
+        <v>1.039728086891468</v>
       </c>
       <c r="J4">
-        <v>1.032789230801689</v>
+        <v>1.057378488450905</v>
       </c>
       <c r="K4">
-        <v>1.038738682840071</v>
+        <v>1.053718488800514</v>
       </c>
       <c r="L4">
-        <v>1.038379822720698</v>
+        <v>1.0688081652814</v>
       </c>
       <c r="M4">
-        <v>1.041188862860323</v>
+        <v>1.076020861551118</v>
       </c>
       <c r="N4">
-        <v>1.013284273550294</v>
+        <v>1.022717374409033</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015934732873251</v>
+        <v>1.053369755151542</v>
       </c>
       <c r="D5">
-        <v>1.030675103165004</v>
+        <v>1.051610104539928</v>
       </c>
       <c r="E5">
-        <v>1.030780984082714</v>
+        <v>1.066849693748698</v>
       </c>
       <c r="F5">
-        <v>1.033787632504583</v>
+        <v>1.074119604472804</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051125131325522</v>
+        <v>1.039838253060281</v>
       </c>
       <c r="J5">
-        <v>1.034494957281521</v>
+        <v>1.057724545123439</v>
       </c>
       <c r="K5">
-        <v>1.040201199913245</v>
+        <v>1.054004294156875</v>
       </c>
       <c r="L5">
-        <v>1.040305924601375</v>
+        <v>1.069207938175673</v>
       </c>
       <c r="M5">
-        <v>1.043279861407238</v>
+        <v>1.076461086702594</v>
       </c>
       <c r="N5">
-        <v>1.013901018282092</v>
+        <v>1.022838193669189</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016302415950439</v>
+        <v>1.053444019121868</v>
       </c>
       <c r="D6">
-        <v>1.030958196773839</v>
+        <v>1.051666748058735</v>
       </c>
       <c r="E6">
-        <v>1.031142358403834</v>
+        <v>1.066925384469973</v>
       </c>
       <c r="F6">
-        <v>1.034176688163719</v>
+        <v>1.074202040540039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051245393208472</v>
+        <v>1.039856711148353</v>
       </c>
       <c r="J6">
-        <v>1.034779377965314</v>
+        <v>1.05778260985318</v>
       </c>
       <c r="K6">
-        <v>1.04044500326762</v>
+        <v>1.054052239789354</v>
       </c>
       <c r="L6">
-        <v>1.040627163971344</v>
+        <v>1.069275025485805</v>
       </c>
       <c r="M6">
-        <v>1.0436286513637</v>
+        <v>1.076534969116141</v>
       </c>
       <c r="N6">
-        <v>1.014003819417501</v>
+        <v>1.022858458393989</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013759965469023</v>
+        <v>1.052933164094138</v>
       </c>
       <c r="D7">
-        <v>1.029000660344306</v>
+        <v>1.051277055831343</v>
       </c>
       <c r="E7">
-        <v>1.02864401095198</v>
+        <v>1.06640474868921</v>
       </c>
       <c r="F7">
-        <v>1.031487143627302</v>
+        <v>1.073635037772137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050412327126611</v>
+        <v>1.039729561572303</v>
       </c>
       <c r="J7">
-        <v>1.032812156689968</v>
+        <v>1.057383115143289</v>
       </c>
       <c r="K7">
-        <v>1.038758344111982</v>
+        <v>1.053722310587428</v>
       </c>
       <c r="L7">
-        <v>1.038405705715329</v>
+        <v>1.068813509506132</v>
       </c>
       <c r="M7">
-        <v>1.041216958465285</v>
+        <v>1.076026746101033</v>
       </c>
       <c r="N7">
-        <v>1.013292565452482</v>
+        <v>1.022718990235125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002759536815765</v>
+        <v>1.050792756758147</v>
       </c>
       <c r="D8">
-        <v>1.020531868788345</v>
+        <v>1.049643147635481</v>
       </c>
       <c r="E8">
-        <v>1.017847027444965</v>
+        <v>1.064224205793682</v>
       </c>
       <c r="F8">
-        <v>1.019868149341773</v>
+        <v>1.071261061223271</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04677078392856</v>
+        <v>1.039192384926026</v>
       </c>
       <c r="J8">
-        <v>1.024287992491833</v>
+        <v>1.055707478380969</v>
       </c>
       <c r="K8">
-        <v>1.031440723555557</v>
+        <v>1.052337077455547</v>
       </c>
       <c r="L8">
-        <v>1.028790556529556</v>
+        <v>1.066879115719281</v>
       </c>
       <c r="M8">
-        <v>1.030785554696005</v>
+        <v>1.073897550441697</v>
       </c>
       <c r="N8">
-        <v>1.010205266369384</v>
+        <v>1.022132920783579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9817483100253422</v>
+        <v>1.047000963699768</v>
       </c>
       <c r="D9">
-        <v>1.004370764014676</v>
+        <v>1.046744355888968</v>
       </c>
       <c r="E9">
-        <v>0.9972786303329101</v>
+        <v>1.060364527432044</v>
       </c>
       <c r="F9">
-        <v>0.9977480402804064</v>
+        <v>1.067061855352725</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039676253653965</v>
+        <v>1.038224033477061</v>
       </c>
       <c r="J9">
-        <v>1.007962464415225</v>
+        <v>1.052732217650355</v>
       </c>
       <c r="K9">
-        <v>1.017393324423805</v>
+        <v>1.049872278000518</v>
       </c>
       <c r="L9">
-        <v>1.010416014707703</v>
+        <v>1.063449621096011</v>
       </c>
       <c r="M9">
-        <v>1.010877759930136</v>
+        <v>1.070126327042454</v>
       </c>
       <c r="N9">
-        <v>1.004274229220538</v>
+        <v>1.021088214646652</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9663964454820798</v>
+        <v>1.044458784807293</v>
       </c>
       <c r="D10">
-        <v>0.9925852147089027</v>
+        <v>1.044798085729369</v>
       </c>
       <c r="E10">
-        <v>0.9822931161202691</v>
+        <v>1.057779023785287</v>
       </c>
       <c r="F10">
-        <v>0.9816389090481923</v>
+        <v>1.064250819248978</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034403879126878</v>
+        <v>1.03756359037473</v>
       </c>
       <c r="J10">
-        <v>0.9960097892454295</v>
+        <v>1.050732909981039</v>
       </c>
       <c r="K10">
-        <v>1.007089648484613</v>
+        <v>1.048212541508934</v>
       </c>
       <c r="L10">
-        <v>0.9969896067402654</v>
+        <v>1.061148571523736</v>
       </c>
       <c r="M10">
-        <v>0.9963477855393649</v>
+        <v>1.067598427313242</v>
       </c>
       <c r="N10">
-        <v>0.9999223735884405</v>
+        <v>1.020383470380639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.959360871738222</v>
+        <v>1.043354421140583</v>
       </c>
       <c r="D11">
-        <v>0.9871927760269635</v>
+        <v>1.04395194849048</v>
       </c>
       <c r="E11">
-        <v>0.9754371407661899</v>
+        <v>1.056656363511461</v>
       </c>
       <c r="F11">
-        <v>0.9742697377655274</v>
+        <v>1.063030678969835</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031968212549105</v>
+        <v>1.037274030246868</v>
       </c>
       <c r="J11">
-        <v>0.9905277709012746</v>
+        <v>1.04986330046798</v>
       </c>
       <c r="K11">
-        <v>1.002360328042973</v>
+        <v>1.047489821032208</v>
       </c>
       <c r="L11">
-        <v>0.9908376344623107</v>
+        <v>1.060148542536478</v>
       </c>
       <c r="M11">
-        <v>0.9896937680035861</v>
+        <v>1.066500385219437</v>
       </c>
       <c r="N11">
-        <v>0.9979249546505604</v>
+        <v>1.020076296423197</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9566820730880692</v>
+        <v>1.04294365764126</v>
       </c>
       <c r="D12">
-        <v>0.9851412512224337</v>
+        <v>1.043637135658261</v>
       </c>
       <c r="E12">
-        <v>0.9728286360319032</v>
+        <v>1.056238873892908</v>
       </c>
       <c r="F12">
-        <v>0.971466027046027</v>
+        <v>1.062577006138884</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03103808590536</v>
+        <v>1.037165931649251</v>
       </c>
       <c r="J12">
-        <v>0.9884400076402075</v>
+        <v>1.049539691303719</v>
       </c>
       <c r="K12">
-        <v>1.000558767488753</v>
+        <v>1.047220753027432</v>
       </c>
       <c r="L12">
-        <v>0.9884955910038699</v>
+        <v>1.059776523776032</v>
       </c>
       <c r="M12">
-        <v>0.987161099950298</v>
+        <v>1.066091991024479</v>
       </c>
       <c r="N12">
-        <v>0.9971641167699749</v>
+        <v>1.019961891285515</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9572597762772396</v>
+        <v>1.043031793107843</v>
       </c>
       <c r="D13">
-        <v>0.9855835977751113</v>
+        <v>1.043704687771855</v>
       </c>
       <c r="E13">
-        <v>0.9733910909067077</v>
+        <v>1.05632844895748</v>
       </c>
       <c r="F13">
-        <v>0.9720705720547479</v>
+        <v>1.062674341507457</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031238795555335</v>
+        <v>1.037189143815598</v>
       </c>
       <c r="J13">
-        <v>0.9888902685182209</v>
+        <v>1.049609133800937</v>
       </c>
       <c r="K13">
-        <v>1.000947322905599</v>
+        <v>1.047278497129002</v>
       </c>
       <c r="L13">
-        <v>0.9890006532418468</v>
+        <v>1.059856348782558</v>
       </c>
       <c r="M13">
-        <v>0.9877072484401992</v>
+        <v>1.06617961730237</v>
       </c>
       <c r="N13">
-        <v>0.9973282092772263</v>
+        <v>1.019986445540475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9591408230133237</v>
+        <v>1.043320478685172</v>
       </c>
       <c r="D14">
-        <v>0.9870242189509625</v>
+        <v>1.043925936628637</v>
       </c>
       <c r="E14">
-        <v>0.9752228266553131</v>
+        <v>1.056621863641211</v>
       </c>
       <c r="F14">
-        <v>0.9740393850594641</v>
+        <v>1.062993187677972</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031891862207169</v>
+        <v>1.037265105888611</v>
       </c>
       <c r="J14">
-        <v>0.9903562812766323</v>
+        <v>1.049836563092388</v>
       </c>
       <c r="K14">
-        <v>1.002212355843393</v>
+        <v>1.047467592440471</v>
       </c>
       <c r="L14">
-        <v>0.9906452408864976</v>
+        <v>1.060117802924023</v>
       </c>
       <c r="M14">
-        <v>0.9894857051142132</v>
+        <v>1.066466638177041</v>
       </c>
       <c r="N14">
-        <v>0.9978624615938404</v>
+        <v>1.020066845947744</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9602908863012557</v>
+        <v>1.043498273571354</v>
       </c>
       <c r="D15">
-        <v>0.9879052351197519</v>
+        <v>1.044062186156332</v>
       </c>
       <c r="E15">
-        <v>0.9763429970083688</v>
+        <v>1.05680258158247</v>
       </c>
       <c r="F15">
-        <v>0.9752433869884384</v>
+        <v>1.06318957809509</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032290789629244</v>
+        <v>1.037311836526763</v>
       </c>
       <c r="J15">
-        <v>0.9912525366091387</v>
+        <v>1.049976610249073</v>
       </c>
       <c r="K15">
-        <v>1.002985684345051</v>
+        <v>1.047584018186806</v>
       </c>
       <c r="L15">
-        <v>0.9916507812527037</v>
+        <v>1.060278818372408</v>
       </c>
       <c r="M15">
-        <v>0.9905731609145207</v>
+        <v>1.066643410204</v>
       </c>
       <c r="N15">
-        <v>0.9981890633726275</v>
+        <v>1.020116342474819</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9668546127313742</v>
+        <v>1.04453200098645</v>
       </c>
       <c r="D16">
-        <v>0.9929365853628909</v>
+        <v>1.044854168761083</v>
       </c>
       <c r="E16">
-        <v>0.9827398408537585</v>
+        <v>1.057853464049471</v>
       </c>
       <c r="F16">
-        <v>0.9821190843155263</v>
+        <v>1.06433173255119</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034562107751266</v>
+        <v>1.037582731623961</v>
       </c>
       <c r="J16">
-        <v>0.996366711682365</v>
+        <v>1.050790539982045</v>
       </c>
       <c r="K16">
-        <v>1.007397497288097</v>
+        <v>1.048260420047161</v>
       </c>
       <c r="L16">
-        <v>0.9973902685882037</v>
+        <v>1.061214861890577</v>
       </c>
       <c r="M16">
-        <v>0.9967812154278803</v>
+        <v>1.067671226901878</v>
       </c>
       <c r="N16">
-        <v>1.000052397216337</v>
+        <v>1.020403813682603</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9708632749867041</v>
+        <v>1.045179460752697</v>
       </c>
       <c r="D17">
-        <v>0.9960118615620308</v>
+        <v>1.045350043661484</v>
       </c>
       <c r="E17">
-        <v>0.9866497160018179</v>
+        <v>1.058511809080899</v>
       </c>
       <c r="F17">
-        <v>0.9863218181161899</v>
+        <v>1.065047376506471</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035944348090961</v>
+        <v>1.037751694196334</v>
       </c>
       <c r="J17">
-        <v>0.9994890881652909</v>
+        <v>1.051300044983873</v>
       </c>
       <c r="K17">
-        <v>1.010090180511151</v>
+        <v>1.048683619495685</v>
       </c>
       <c r="L17">
-        <v>1.000895944455919</v>
+        <v>1.061801027929631</v>
       </c>
       <c r="M17">
-        <v>1.000574002567544</v>
+        <v>1.068315016397158</v>
       </c>
       <c r="N17">
-        <v>1.001189694554872</v>
+        <v>1.020583594260085</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9731645564854856</v>
+        <v>1.04555676837246</v>
       </c>
       <c r="D18">
-        <v>0.9977780979932287</v>
+        <v>1.045638952792281</v>
       </c>
       <c r="E18">
-        <v>0.9888953663401613</v>
+        <v>1.058895510562619</v>
       </c>
       <c r="F18">
-        <v>0.9887357594206533</v>
+        <v>1.065464516657425</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036736040108341</v>
+        <v>1.037849901727413</v>
       </c>
       <c r="J18">
-        <v>1.001281165669029</v>
+        <v>1.051596855540412</v>
       </c>
       <c r="K18">
-        <v>1.011635294894931</v>
+        <v>1.048930075100194</v>
       </c>
       <c r="L18">
-        <v>1.00290857338714</v>
+        <v>1.062142576522769</v>
       </c>
       <c r="M18">
-        <v>1.002751802962617</v>
+        <v>1.068690196557992</v>
       </c>
       <c r="N18">
-        <v>1.001842300394427</v>
+        <v>1.020688263101136</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9739431723873856</v>
+        <v>1.045685362511988</v>
       </c>
       <c r="D19">
-        <v>0.998375811667927</v>
+        <v>1.045737408309739</v>
       </c>
       <c r="E19">
-        <v>0.9896553391001767</v>
+        <v>1.059026292407227</v>
       </c>
       <c r="F19">
-        <v>0.9895527020136236</v>
+        <v>1.065606703179576</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037003587852561</v>
+        <v>1.037883329497535</v>
       </c>
       <c r="J19">
-        <v>1.001887424051247</v>
+        <v>1.05169799701277</v>
       </c>
       <c r="K19">
-        <v>1.012157945419246</v>
+        <v>1.049014044329405</v>
       </c>
       <c r="L19">
-        <v>1.003589539672771</v>
+        <v>1.062258976449485</v>
       </c>
       <c r="M19">
-        <v>1.003488713054139</v>
+        <v>1.068818067541979</v>
       </c>
       <c r="N19">
-        <v>1.002063050219432</v>
+        <v>1.020723919673386</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9704370483786385</v>
+        <v>1.045110030212463</v>
       </c>
       <c r="D20">
-        <v>0.9956847940449015</v>
+        <v>1.045296874805593</v>
       </c>
       <c r="E20">
-        <v>0.98623387964591</v>
+        <v>1.058441206030962</v>
       </c>
       <c r="F20">
-        <v>0.985874826169596</v>
+        <v>1.064970624057721</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035797567806373</v>
+        <v>1.03773360187931</v>
       </c>
       <c r="J20">
-        <v>0.9991571385142114</v>
+        <v>1.05124541880409</v>
       </c>
       <c r="K20">
-        <v>1.009803947924773</v>
+        <v>1.048638254556824</v>
       </c>
       <c r="L20">
-        <v>1.000523187176575</v>
+        <v>1.061738174383499</v>
       </c>
       <c r="M20">
-        <v>1.000170681803078</v>
+        <v>1.068245978258965</v>
       </c>
       <c r="N20">
-        <v>1.001068799189778</v>
+        <v>1.020564325616326</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9585887729351367</v>
+        <v>1.043235483385343</v>
       </c>
       <c r="D21">
-        <v>0.9866013769206238</v>
+        <v>1.043860798788945</v>
       </c>
       <c r="E21">
-        <v>0.9746851946173811</v>
+        <v>1.056535473799912</v>
       </c>
       <c r="F21">
-        <v>0.9734615188453463</v>
+        <v>1.06289930821326</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031700273846463</v>
+        <v>1.037242751980393</v>
       </c>
       <c r="J21">
-        <v>0.9899260473111395</v>
+        <v>1.049769607425781</v>
       </c>
       <c r="K21">
-        <v>1.001841115541073</v>
+        <v>1.047411925709042</v>
       </c>
       <c r="L21">
-        <v>0.9901625767453138</v>
+        <v>1.060040826861133</v>
       </c>
       <c r="M21">
-        <v>0.9889637387790526</v>
+        <v>1.066382132502717</v>
       </c>
       <c r="N21">
-        <v>0.9977056766889504</v>
+        <v>1.020043178542782</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9507559392395779</v>
+        <v>1.042053670385052</v>
       </c>
       <c r="D22">
-        <v>0.980606266101219</v>
+        <v>1.042954868146051</v>
       </c>
       <c r="E22">
-        <v>0.9670617374049227</v>
+        <v>1.055334458842699</v>
       </c>
       <c r="F22">
-        <v>0.9652675584170683</v>
+        <v>1.061594329375486</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02897555827356</v>
+        <v>1.03693099077417</v>
       </c>
       <c r="J22">
-        <v>0.9838206893539351</v>
+        <v>1.048838243346299</v>
       </c>
       <c r="K22">
-        <v>0.9965719616863559</v>
+        <v>1.046637306764683</v>
       </c>
       <c r="L22">
-        <v>0.9833152193377936</v>
+        <v>1.05897037016135</v>
       </c>
       <c r="M22">
-        <v>0.9815599665999645</v>
+        <v>1.065207170477851</v>
       </c>
       <c r="N22">
-        <v>0.9954805387654252</v>
+        <v>1.019713734008882</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9549473528708561</v>
+        <v>1.042680481331241</v>
       </c>
       <c r="D23">
-        <v>0.9838132488975669</v>
+        <v>1.043435408244705</v>
       </c>
       <c r="E23">
-        <v>0.9711399967053594</v>
+        <v>1.055971410517318</v>
       </c>
       <c r="F23">
-        <v>0.9696510224307353</v>
+        <v>1.062286380985061</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030435009312725</v>
+        <v>1.037096560902049</v>
       </c>
       <c r="J23">
-        <v>0.9870879125551738</v>
+        <v>1.049332309391904</v>
       </c>
       <c r="K23">
-        <v>0.9993919096076845</v>
+        <v>1.047048289358135</v>
       </c>
       <c r="L23">
-        <v>0.9869790560561701</v>
+        <v>1.059538153790406</v>
       </c>
       <c r="M23">
-        <v>0.9855212669493048</v>
+        <v>1.065830337829937</v>
       </c>
       <c r="N23">
-        <v>0.9966713462821853</v>
+        <v>1.019888548840864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9706297553526729</v>
+        <v>1.045141403950005</v>
       </c>
       <c r="D24">
-        <v>0.9958326664496832</v>
+        <v>1.045320900531242</v>
       </c>
       <c r="E24">
-        <v>0.9864218855952908</v>
+        <v>1.058473109437174</v>
       </c>
       <c r="F24">
-        <v>0.9860769177610658</v>
+        <v>1.065005306059455</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035863936266785</v>
+        <v>1.037741778086114</v>
       </c>
       <c r="J24">
-        <v>0.9993072219599223</v>
+        <v>1.051270103182325</v>
       </c>
       <c r="K24">
-        <v>1.009933362515589</v>
+        <v>1.048658754223422</v>
       </c>
       <c r="L24">
-        <v>1.00069171911998</v>
+        <v>1.061766576283512</v>
       </c>
       <c r="M24">
-        <v>1.000353031126974</v>
+        <v>1.068277174645689</v>
       </c>
       <c r="N24">
-        <v>1.001123459712974</v>
+        <v>1.020573032886873</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9873965984464554</v>
+        <v>1.047983698281371</v>
       </c>
       <c r="D25">
-        <v>1.008712393300527</v>
+        <v>1.047496145277952</v>
       </c>
       <c r="E25">
-        <v>1.002801099852917</v>
+        <v>1.061364473181443</v>
       </c>
       <c r="F25">
-        <v>1.003685746472991</v>
+        <v>1.068149427307477</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041598872835021</v>
+        <v>1.038476980140743</v>
       </c>
       <c r="J25">
-        <v>1.01235569136099</v>
+        <v>1.053504132773835</v>
       </c>
       <c r="K25">
-        <v>1.021176949514427</v>
+        <v>1.050512364948853</v>
       </c>
       <c r="L25">
-        <v>1.015356087423263</v>
+        <v>1.064338770048592</v>
       </c>
       <c r="M25">
-        <v>1.016227114156207</v>
+        <v>1.071103645525334</v>
       </c>
       <c r="N25">
-        <v>1.005872103627307</v>
+        <v>1.021359738156885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_147/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_147/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050240391420051</v>
+        <v>0.9998251697523428</v>
       </c>
       <c r="D2">
-        <v>1.049221199704704</v>
+        <v>1.018273384744343</v>
       </c>
       <c r="E2">
-        <v>1.063661699733451</v>
+        <v>1.014970304926306</v>
       </c>
       <c r="F2">
-        <v>1.070648850203086</v>
+        <v>1.016773429938589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039052624044855</v>
+        <v>1.04579010364138</v>
       </c>
       <c r="J2">
-        <v>1.055274591449345</v>
+        <v>1.022011111220747</v>
       </c>
       <c r="K2">
-        <v>1.051978862053855</v>
+        <v>1.029483879592335</v>
       </c>
       <c r="L2">
-        <v>1.066379734503542</v>
+        <v>1.026224946113805</v>
       </c>
       <c r="M2">
-        <v>1.073348125940836</v>
+        <v>1.028003927340569</v>
       </c>
       <c r="N2">
-        <v>1.021981237685588</v>
+        <v>1.009379335671455</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051873240476058</v>
+        <v>1.008384370566375</v>
       </c>
       <c r="D3">
-        <v>1.050468178356056</v>
+        <v>1.024861905221823</v>
       </c>
       <c r="E3">
-        <v>1.06532478135365</v>
+        <v>1.023365305233632</v>
       </c>
       <c r="F3">
-        <v>1.072459115922767</v>
+        <v>1.025805741075701</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039464437775116</v>
+        <v>1.048640013984567</v>
       </c>
       <c r="J3">
-        <v>1.056553705720592</v>
+        <v>1.028649049781901</v>
       </c>
       <c r="K3">
-        <v>1.053036920329153</v>
+        <v>1.035186256918388</v>
       </c>
       <c r="L3">
-        <v>1.067855744475702</v>
+        <v>1.033707702662653</v>
       </c>
       <c r="M3">
-        <v>1.074972337630042</v>
+        <v>1.036118745765865</v>
       </c>
       <c r="N3">
-        <v>1.022429112652596</v>
+        <v>1.011785782123699</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052927248968394</v>
+        <v>1.013730344876932</v>
       </c>
       <c r="D4">
-        <v>1.051272542997792</v>
+        <v>1.02897785427255</v>
       </c>
       <c r="E4">
-        <v>1.066398720774397</v>
+        <v>1.028614910756083</v>
       </c>
       <c r="F4">
-        <v>1.073628473438989</v>
+        <v>1.031455818802927</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039728086891468</v>
+        <v>1.05040260141278</v>
       </c>
       <c r="J4">
-        <v>1.057378488450905</v>
+        <v>1.032789230801688</v>
       </c>
       <c r="K4">
-        <v>1.053718488800514</v>
+        <v>1.03873868284007</v>
       </c>
       <c r="L4">
-        <v>1.0688081652814</v>
+        <v>1.038379822720697</v>
       </c>
       <c r="M4">
-        <v>1.076020861551118</v>
+        <v>1.041188862860321</v>
       </c>
       <c r="N4">
-        <v>1.022717374409033</v>
+        <v>1.013284273550293</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053369755151542</v>
+        <v>1.015934732873252</v>
       </c>
       <c r="D5">
-        <v>1.051610104539928</v>
+        <v>1.030675103165005</v>
       </c>
       <c r="E5">
-        <v>1.066849693748698</v>
+        <v>1.030780984082715</v>
       </c>
       <c r="F5">
-        <v>1.074119604472804</v>
+        <v>1.033787632504584</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039838253060281</v>
+        <v>1.051125131325522</v>
       </c>
       <c r="J5">
-        <v>1.057724545123439</v>
+        <v>1.034494957281522</v>
       </c>
       <c r="K5">
-        <v>1.054004294156875</v>
+        <v>1.040201199913246</v>
       </c>
       <c r="L5">
-        <v>1.069207938175673</v>
+        <v>1.040305924601376</v>
       </c>
       <c r="M5">
-        <v>1.076461086702594</v>
+        <v>1.043279861407239</v>
       </c>
       <c r="N5">
-        <v>1.022838193669189</v>
+        <v>1.013901018282092</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053444019121868</v>
+        <v>1.016302415950441</v>
       </c>
       <c r="D6">
-        <v>1.051666748058735</v>
+        <v>1.030958196773841</v>
       </c>
       <c r="E6">
-        <v>1.066925384469973</v>
+        <v>1.031142358403838</v>
       </c>
       <c r="F6">
-        <v>1.074202040540039</v>
+        <v>1.034176688163722</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039856711148353</v>
+        <v>1.051245393208473</v>
       </c>
       <c r="J6">
-        <v>1.05778260985318</v>
+        <v>1.034779377965317</v>
       </c>
       <c r="K6">
-        <v>1.054052239789354</v>
+        <v>1.040445003267623</v>
       </c>
       <c r="L6">
-        <v>1.069275025485805</v>
+        <v>1.040627163971347</v>
       </c>
       <c r="M6">
-        <v>1.076534969116141</v>
+        <v>1.043628651363703</v>
       </c>
       <c r="N6">
-        <v>1.022858458393989</v>
+        <v>1.014003819417502</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052933164094138</v>
+        <v>1.013759965469024</v>
       </c>
       <c r="D7">
-        <v>1.051277055831343</v>
+        <v>1.029000660344306</v>
       </c>
       <c r="E7">
-        <v>1.06640474868921</v>
+        <v>1.028644010951981</v>
       </c>
       <c r="F7">
-        <v>1.073635037772137</v>
+        <v>1.031487143627304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039729561572303</v>
+        <v>1.050412327126611</v>
       </c>
       <c r="J7">
-        <v>1.057383115143289</v>
+        <v>1.032812156689969</v>
       </c>
       <c r="K7">
-        <v>1.053722310587428</v>
+        <v>1.038758344111982</v>
       </c>
       <c r="L7">
-        <v>1.068813509506132</v>
+        <v>1.03840570571533</v>
       </c>
       <c r="M7">
-        <v>1.076026746101033</v>
+        <v>1.041216958465286</v>
       </c>
       <c r="N7">
-        <v>1.022718990235125</v>
+        <v>1.013292565452482</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050792756758147</v>
+        <v>1.002759536815765</v>
       </c>
       <c r="D8">
-        <v>1.049643147635481</v>
+        <v>1.020531868788345</v>
       </c>
       <c r="E8">
-        <v>1.064224205793682</v>
+        <v>1.017847027444965</v>
       </c>
       <c r="F8">
-        <v>1.071261061223271</v>
+        <v>1.019868149341773</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039192384926026</v>
+        <v>1.04677078392856</v>
       </c>
       <c r="J8">
-        <v>1.055707478380969</v>
+        <v>1.024287992491833</v>
       </c>
       <c r="K8">
-        <v>1.052337077455547</v>
+        <v>1.031440723555557</v>
       </c>
       <c r="L8">
-        <v>1.066879115719281</v>
+        <v>1.028790556529556</v>
       </c>
       <c r="M8">
-        <v>1.073897550441697</v>
+        <v>1.030785554696006</v>
       </c>
       <c r="N8">
-        <v>1.022132920783579</v>
+        <v>1.010205266369384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047000963699768</v>
+        <v>0.9817483100253426</v>
       </c>
       <c r="D9">
-        <v>1.046744355888968</v>
+        <v>1.004370764014676</v>
       </c>
       <c r="E9">
-        <v>1.060364527432044</v>
+        <v>0.9972786303329108</v>
       </c>
       <c r="F9">
-        <v>1.067061855352725</v>
+        <v>0.9977480402804071</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038224033477061</v>
+        <v>1.039676253653966</v>
       </c>
       <c r="J9">
-        <v>1.052732217650355</v>
+        <v>1.007962464415225</v>
       </c>
       <c r="K9">
-        <v>1.049872278000518</v>
+        <v>1.017393324423806</v>
       </c>
       <c r="L9">
-        <v>1.063449621096011</v>
+        <v>1.010416014707703</v>
       </c>
       <c r="M9">
-        <v>1.070126327042454</v>
+        <v>1.010877759930137</v>
       </c>
       <c r="N9">
-        <v>1.021088214646652</v>
+        <v>1.004274229220538</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044458784807293</v>
+        <v>0.966396445482082</v>
       </c>
       <c r="D10">
-        <v>1.044798085729369</v>
+        <v>0.9925852147089047</v>
       </c>
       <c r="E10">
-        <v>1.057779023785287</v>
+        <v>0.9822931161202721</v>
       </c>
       <c r="F10">
-        <v>1.064250819248978</v>
+        <v>0.9816389090481951</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03756359037473</v>
+        <v>1.034403879126879</v>
       </c>
       <c r="J10">
-        <v>1.050732909981039</v>
+        <v>0.9960097892454317</v>
       </c>
       <c r="K10">
-        <v>1.048212541508934</v>
+        <v>1.007089648484615</v>
       </c>
       <c r="L10">
-        <v>1.061148571523736</v>
+        <v>0.9969896067402683</v>
       </c>
       <c r="M10">
-        <v>1.067598427313242</v>
+        <v>0.9963477855393676</v>
       </c>
       <c r="N10">
-        <v>1.020383470380639</v>
+        <v>0.9999223735884414</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043354421140583</v>
+        <v>0.9593608717382222</v>
       </c>
       <c r="D11">
-        <v>1.04395194849048</v>
+        <v>0.9871927760269639</v>
       </c>
       <c r="E11">
-        <v>1.056656363511461</v>
+        <v>0.97543714076619</v>
       </c>
       <c r="F11">
-        <v>1.063030678969835</v>
+        <v>0.9742697377655273</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037274030246868</v>
+        <v>1.031968212549105</v>
       </c>
       <c r="J11">
-        <v>1.04986330046798</v>
+        <v>0.9905277709012751</v>
       </c>
       <c r="K11">
-        <v>1.047489821032208</v>
+        <v>1.002360328042974</v>
       </c>
       <c r="L11">
-        <v>1.060148542536478</v>
+        <v>0.9908376344623109</v>
       </c>
       <c r="M11">
-        <v>1.066500385219437</v>
+        <v>0.9896937680035863</v>
       </c>
       <c r="N11">
-        <v>1.020076296423197</v>
+        <v>0.9979249546505604</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04294365764126</v>
+        <v>0.9566820730880675</v>
       </c>
       <c r="D12">
-        <v>1.043637135658261</v>
+        <v>0.985141251222432</v>
       </c>
       <c r="E12">
-        <v>1.056238873892908</v>
+        <v>0.9728286360319014</v>
       </c>
       <c r="F12">
-        <v>1.062577006138884</v>
+        <v>0.9714660270460255</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037165931649251</v>
+        <v>1.031038085905359</v>
       </c>
       <c r="J12">
-        <v>1.049539691303719</v>
+        <v>0.9884400076402057</v>
       </c>
       <c r="K12">
-        <v>1.047220753027432</v>
+        <v>1.000558767488751</v>
       </c>
       <c r="L12">
-        <v>1.059776523776032</v>
+        <v>0.988495591003868</v>
       </c>
       <c r="M12">
-        <v>1.066091991024479</v>
+        <v>0.9871610999502964</v>
       </c>
       <c r="N12">
-        <v>1.019961891285515</v>
+        <v>0.9971641167699743</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043031793107843</v>
+        <v>0.9572597762772392</v>
       </c>
       <c r="D13">
-        <v>1.043704687771855</v>
+        <v>0.9855835977751112</v>
       </c>
       <c r="E13">
-        <v>1.05632844895748</v>
+        <v>0.9733910909067075</v>
       </c>
       <c r="F13">
-        <v>1.062674341507457</v>
+        <v>0.9720705720547477</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037189143815598</v>
+        <v>1.031238795555334</v>
       </c>
       <c r="J13">
-        <v>1.049609133800937</v>
+        <v>0.9888902685182207</v>
       </c>
       <c r="K13">
-        <v>1.047278497129002</v>
+        <v>1.000947322905599</v>
       </c>
       <c r="L13">
-        <v>1.059856348782558</v>
+        <v>0.9890006532418467</v>
       </c>
       <c r="M13">
-        <v>1.06617961730237</v>
+        <v>0.9877072484401991</v>
       </c>
       <c r="N13">
-        <v>1.019986445540475</v>
+        <v>0.9973282092772262</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043320478685172</v>
+        <v>0.9591408230133238</v>
       </c>
       <c r="D14">
-        <v>1.043925936628637</v>
+        <v>0.9870242189509624</v>
       </c>
       <c r="E14">
-        <v>1.056621863641211</v>
+        <v>0.975222826655313</v>
       </c>
       <c r="F14">
-        <v>1.062993187677972</v>
+        <v>0.9740393850594641</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037265105888611</v>
+        <v>1.031891862207169</v>
       </c>
       <c r="J14">
-        <v>1.049836563092388</v>
+        <v>0.9903562812766323</v>
       </c>
       <c r="K14">
-        <v>1.047467592440471</v>
+        <v>1.002212355843393</v>
       </c>
       <c r="L14">
-        <v>1.060117802924023</v>
+        <v>0.9906452408864974</v>
       </c>
       <c r="M14">
-        <v>1.066466638177041</v>
+        <v>0.989485705114213</v>
       </c>
       <c r="N14">
-        <v>1.020066845947744</v>
+        <v>0.9978624615938403</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043498273571354</v>
+        <v>0.9602908863012554</v>
       </c>
       <c r="D15">
-        <v>1.044062186156332</v>
+        <v>0.9879052351197523</v>
       </c>
       <c r="E15">
-        <v>1.05680258158247</v>
+        <v>0.9763429970083688</v>
       </c>
       <c r="F15">
-        <v>1.06318957809509</v>
+        <v>0.9752433869884382</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037311836526763</v>
+        <v>1.032290789629244</v>
       </c>
       <c r="J15">
-        <v>1.049976610249073</v>
+        <v>0.9912525366091388</v>
       </c>
       <c r="K15">
-        <v>1.047584018186806</v>
+        <v>1.002985684345051</v>
       </c>
       <c r="L15">
-        <v>1.060278818372408</v>
+        <v>0.9916507812527036</v>
       </c>
       <c r="M15">
-        <v>1.066643410204</v>
+        <v>0.9905731609145206</v>
       </c>
       <c r="N15">
-        <v>1.020116342474819</v>
+        <v>0.9981890633726275</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04453200098645</v>
+        <v>0.9668546127313746</v>
       </c>
       <c r="D16">
-        <v>1.044854168761083</v>
+        <v>0.9929365853628912</v>
       </c>
       <c r="E16">
-        <v>1.057853464049471</v>
+        <v>0.9827398408537591</v>
       </c>
       <c r="F16">
-        <v>1.06433173255119</v>
+        <v>0.9821190843155269</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037582731623961</v>
+        <v>1.034562107751267</v>
       </c>
       <c r="J16">
-        <v>1.050790539982045</v>
+        <v>0.9963667116823657</v>
       </c>
       <c r="K16">
-        <v>1.048260420047161</v>
+        <v>1.007397497288098</v>
       </c>
       <c r="L16">
-        <v>1.061214861890577</v>
+        <v>0.9973902685882042</v>
       </c>
       <c r="M16">
-        <v>1.067671226901878</v>
+        <v>0.9967812154278809</v>
       </c>
       <c r="N16">
-        <v>1.020403813682603</v>
+        <v>1.000052397216337</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045179460752697</v>
+        <v>0.9708632749867037</v>
       </c>
       <c r="D17">
-        <v>1.045350043661484</v>
+        <v>0.9960118615620304</v>
       </c>
       <c r="E17">
-        <v>1.058511809080899</v>
+        <v>0.9866497160018179</v>
       </c>
       <c r="F17">
-        <v>1.065047376506471</v>
+        <v>0.98632181811619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037751694196334</v>
+        <v>1.035944348090961</v>
       </c>
       <c r="J17">
-        <v>1.051300044983873</v>
+        <v>0.9994890881652906</v>
       </c>
       <c r="K17">
-        <v>1.048683619495685</v>
+        <v>1.010090180511151</v>
       </c>
       <c r="L17">
-        <v>1.061801027929631</v>
+        <v>1.000895944455919</v>
       </c>
       <c r="M17">
-        <v>1.068315016397158</v>
+        <v>1.000574002567544</v>
       </c>
       <c r="N17">
-        <v>1.020583594260085</v>
+        <v>1.001189694554871</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04555676837246</v>
+        <v>0.9731645564854854</v>
       </c>
       <c r="D18">
-        <v>1.045638952792281</v>
+        <v>0.9977780979932284</v>
       </c>
       <c r="E18">
-        <v>1.058895510562619</v>
+        <v>0.9888953663401606</v>
       </c>
       <c r="F18">
-        <v>1.065464516657425</v>
+        <v>0.9887357594206527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037849901727413</v>
+        <v>1.036736040108341</v>
       </c>
       <c r="J18">
-        <v>1.051596855540412</v>
+        <v>1.001281165669029</v>
       </c>
       <c r="K18">
-        <v>1.048930075100194</v>
+        <v>1.011635294894931</v>
       </c>
       <c r="L18">
-        <v>1.062142576522769</v>
+        <v>1.002908573387139</v>
       </c>
       <c r="M18">
-        <v>1.068690196557992</v>
+        <v>1.002751802962617</v>
       </c>
       <c r="N18">
-        <v>1.020688263101136</v>
+        <v>1.001842300394427</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045685362511988</v>
+        <v>0.9739431723873839</v>
       </c>
       <c r="D19">
-        <v>1.045737408309739</v>
+        <v>0.9983758116679253</v>
       </c>
       <c r="E19">
-        <v>1.059026292407227</v>
+        <v>0.9896553391001748</v>
       </c>
       <c r="F19">
-        <v>1.065606703179576</v>
+        <v>0.9895527020136213</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037883329497535</v>
+        <v>1.03700358785256</v>
       </c>
       <c r="J19">
-        <v>1.05169799701277</v>
+        <v>1.001887424051245</v>
       </c>
       <c r="K19">
-        <v>1.049014044329405</v>
+        <v>1.012157945419244</v>
       </c>
       <c r="L19">
-        <v>1.062258976449485</v>
+        <v>1.003589539672769</v>
       </c>
       <c r="M19">
-        <v>1.068818067541979</v>
+        <v>1.003488713054137</v>
       </c>
       <c r="N19">
-        <v>1.020723919673386</v>
+        <v>1.002063050219431</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045110030212463</v>
+        <v>0.9704370483786385</v>
       </c>
       <c r="D20">
-        <v>1.045296874805593</v>
+        <v>0.9956847940449016</v>
       </c>
       <c r="E20">
-        <v>1.058441206030962</v>
+        <v>0.9862338796459098</v>
       </c>
       <c r="F20">
-        <v>1.064970624057721</v>
+        <v>0.9858748261695957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03773360187931</v>
+        <v>1.035797567806373</v>
       </c>
       <c r="J20">
-        <v>1.05124541880409</v>
+        <v>0.9991571385142114</v>
       </c>
       <c r="K20">
-        <v>1.048638254556824</v>
+        <v>1.009803947924774</v>
       </c>
       <c r="L20">
-        <v>1.061738174383499</v>
+        <v>1.000523187176574</v>
       </c>
       <c r="M20">
-        <v>1.068245978258965</v>
+        <v>1.000170681803078</v>
       </c>
       <c r="N20">
-        <v>1.020564325616326</v>
+        <v>1.001068799189778</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043235483385343</v>
+        <v>0.9585887729351373</v>
       </c>
       <c r="D21">
-        <v>1.043860798788945</v>
+        <v>0.9866013769206243</v>
       </c>
       <c r="E21">
-        <v>1.056535473799912</v>
+        <v>0.974685194617382</v>
       </c>
       <c r="F21">
-        <v>1.06289930821326</v>
+        <v>0.9734615188453474</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037242751980393</v>
+        <v>1.031700273846463</v>
       </c>
       <c r="J21">
-        <v>1.049769607425781</v>
+        <v>0.9899260473111402</v>
       </c>
       <c r="K21">
-        <v>1.047411925709042</v>
+        <v>1.001841115541074</v>
       </c>
       <c r="L21">
-        <v>1.060040826861133</v>
+        <v>0.9901625767453146</v>
       </c>
       <c r="M21">
-        <v>1.066382132502717</v>
+        <v>0.9889637387790539</v>
       </c>
       <c r="N21">
-        <v>1.020043178542782</v>
+        <v>0.9977056766889506</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042053670385052</v>
+        <v>0.9507559392395782</v>
       </c>
       <c r="D22">
-        <v>1.042954868146051</v>
+        <v>0.9806062661012194</v>
       </c>
       <c r="E22">
-        <v>1.055334458842699</v>
+        <v>0.9670617374049227</v>
       </c>
       <c r="F22">
-        <v>1.061594329375486</v>
+        <v>0.9652675584170682</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03693099077417</v>
+        <v>1.028975558273561</v>
       </c>
       <c r="J22">
-        <v>1.048838243346299</v>
+        <v>0.9838206893539352</v>
       </c>
       <c r="K22">
-        <v>1.046637306764683</v>
+        <v>0.9965719616863561</v>
       </c>
       <c r="L22">
-        <v>1.05897037016135</v>
+        <v>0.9833152193377939</v>
       </c>
       <c r="M22">
-        <v>1.065207170477851</v>
+        <v>0.9815599665999643</v>
       </c>
       <c r="N22">
-        <v>1.019713734008882</v>
+        <v>0.9954805387654252</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042680481331241</v>
+        <v>0.954947352870854</v>
       </c>
       <c r="D23">
-        <v>1.043435408244705</v>
+        <v>0.9838132488975653</v>
       </c>
       <c r="E23">
-        <v>1.055971410517318</v>
+        <v>0.9711399967053574</v>
       </c>
       <c r="F23">
-        <v>1.062286380985061</v>
+        <v>0.9696510224307328</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037096560902049</v>
+        <v>1.030435009312725</v>
       </c>
       <c r="J23">
-        <v>1.049332309391904</v>
+        <v>0.9870879125551719</v>
       </c>
       <c r="K23">
-        <v>1.047048289358135</v>
+        <v>0.999391909607683</v>
       </c>
       <c r="L23">
-        <v>1.059538153790406</v>
+        <v>0.9869790560561681</v>
       </c>
       <c r="M23">
-        <v>1.065830337829937</v>
+        <v>0.9855212669493025</v>
       </c>
       <c r="N23">
-        <v>1.019888548840864</v>
+        <v>0.9966713462821848</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045141403950005</v>
+        <v>0.970629755352674</v>
       </c>
       <c r="D24">
-        <v>1.045320900531242</v>
+        <v>0.9958326664496843</v>
       </c>
       <c r="E24">
-        <v>1.058473109437174</v>
+        <v>0.9864218855952924</v>
       </c>
       <c r="F24">
-        <v>1.065005306059455</v>
+        <v>0.9860769177610672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037741778086114</v>
+        <v>1.035863936266785</v>
       </c>
       <c r="J24">
-        <v>1.051270103182325</v>
+        <v>0.9993072219599233</v>
       </c>
       <c r="K24">
-        <v>1.048658754223422</v>
+        <v>1.00993336251559</v>
       </c>
       <c r="L24">
-        <v>1.061766576283512</v>
+        <v>1.000691719119982</v>
       </c>
       <c r="M24">
-        <v>1.068277174645689</v>
+        <v>1.000353031126975</v>
       </c>
       <c r="N24">
-        <v>1.020573032886873</v>
+        <v>1.001123459712975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047983698281371</v>
+        <v>0.9873965984464567</v>
       </c>
       <c r="D25">
-        <v>1.047496145277952</v>
+        <v>1.008712393300528</v>
       </c>
       <c r="E25">
-        <v>1.061364473181443</v>
+        <v>1.002801099852918</v>
       </c>
       <c r="F25">
-        <v>1.068149427307477</v>
+        <v>1.003685746472992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038476980140743</v>
+        <v>1.041598872835021</v>
       </c>
       <c r="J25">
-        <v>1.053504132773835</v>
+        <v>1.012355691360991</v>
       </c>
       <c r="K25">
-        <v>1.050512364948853</v>
+        <v>1.021176949514427</v>
       </c>
       <c r="L25">
-        <v>1.064338770048592</v>
+        <v>1.015356087423263</v>
       </c>
       <c r="M25">
-        <v>1.071103645525334</v>
+        <v>1.016227114156208</v>
       </c>
       <c r="N25">
-        <v>1.021359738156885</v>
+        <v>1.005872103627308</v>
       </c>
     </row>
   </sheetData>
